--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep/ifoCAst_error_tables_last_rep_latest_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_last_rep/ifoCAst_error_tables_last_rep_latest_GVA.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02072315384140351</v>
+        <v>0.02927166946637607</v>
       </c>
       <c r="C2">
-        <v>1.589476958557143</v>
+        <v>1.520652503372878</v>
       </c>
       <c r="D2">
-        <v>7.071900639339126</v>
+        <v>6.746610706108599</v>
       </c>
       <c r="E2">
-        <v>2.659304540540464</v>
+        <v>2.597423859540179</v>
       </c>
       <c r="F2">
-        <v>2.724893529983455</v>
+        <v>2.658379252570611</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
